--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang11\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang11\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -310,6 +310,33 @@
   </si>
   <si>
     <t>125.212.203.114,13232</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Sim hết data</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
   </si>
 </sst>
 </file>
@@ -761,30 +788,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -802,6 +805,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,39 +1172,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1222,58 +1249,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1298,23 +1325,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1340,7 +1367,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1371,7 +1398,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1427,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1456,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1458,7 +1485,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1514,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1543,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1547,7 +1574,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1603,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1605,7 +1632,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1634,7 +1661,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3350,6 +3377,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3361,13 +3395,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3411,39 +3438,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3488,58 +3515,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3564,23 +3591,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,7 +3633,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3637,7 +3664,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3666,7 +3693,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3695,7 +3722,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3724,7 +3751,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3753,7 +3780,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3782,7 +3809,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3813,7 +3840,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3842,7 +3869,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3871,7 +3898,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3900,7 +3927,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5616,13 +5643,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5634,6 +5654,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5677,39 +5704,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5754,58 +5781,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5830,23 +5857,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5872,7 +5899,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5903,7 +5930,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5932,7 +5959,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5961,7 +5988,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5990,7 +6017,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6019,7 +6046,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6048,7 +6075,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6079,7 +6106,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6108,7 +6135,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6137,7 +6164,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6166,7 +6193,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7882,13 +7909,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7900,6 +7920,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7910,7 +7937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -7943,41 +7970,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8022,58 +8049,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8098,23 +8125,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8158,7 +8185,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8203,7 +8230,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8232,7 +8259,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8261,7 +8288,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8290,7 +8317,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8319,7 +8346,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8348,7 +8375,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8379,7 +8406,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8408,7 +8435,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8437,7 +8464,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8466,7 +8493,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10182,13 +10209,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10200,6 +10220,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10243,39 +10270,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10320,58 +10347,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10396,23 +10423,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10438,7 +10465,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10469,7 +10496,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10498,7 +10525,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10527,7 +10554,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10556,7 +10583,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10585,7 +10612,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10614,7 +10641,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10645,7 +10672,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10674,7 +10701,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10703,7 +10730,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10732,7 +10759,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12448,13 +12475,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12466,6 +12486,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12476,8 +12503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12509,41 +12536,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12588,58 +12615,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12664,23 +12691,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12732,7 +12759,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12744,26 +12771,54 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="B7" s="61">
+        <v>44874</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44876</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="60">
+        <v>867717030471511</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>67</v>
+      </c>
       <c r="J7" s="64"/>
       <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="L7" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>92</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12773,26 +12828,56 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="61">
+        <v>44874</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44876</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="60">
+        <v>867857039895482</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>67</v>
+      </c>
       <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="K8" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
+      <c r="O8" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12821,7 +12906,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12850,7 +12935,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12879,7 +12964,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12908,7 +12993,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12939,7 +13024,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12968,7 +13053,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12997,7 +13082,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13026,7 +13111,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13144,7 +13229,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13613,7 +13698,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13645,7 +13730,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13677,7 +13762,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14742,13 +14827,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14760,6 +14838,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14803,39 +14888,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14880,58 +14965,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14956,23 +15041,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14998,7 +15083,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15029,7 +15114,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15058,7 +15143,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15087,7 +15172,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15116,7 +15201,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15145,7 +15230,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15174,7 +15259,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15205,7 +15290,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15234,7 +15319,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15263,7 +15348,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15292,7 +15377,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17008,13 +17093,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17026,6 +17104,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17036,8 +17121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17069,41 +17154,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17148,58 +17233,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17224,23 +17309,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17296,7 +17381,7 @@
         <v>76</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17308,26 +17393,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="B7" s="61">
+        <v>44874</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44876</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="60">
+        <v>864811037242497</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17356,7 +17467,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17385,7 +17496,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17414,7 +17525,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17443,7 +17554,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17472,7 +17583,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17503,7 +17614,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17532,7 +17643,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17561,7 +17672,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17590,7 +17701,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17740,7 +17851,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -18049,7 +18160,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18241,7 +18352,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -19306,13 +19417,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19324,6 +19428,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19367,39 +19478,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19444,58 +19555,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19520,23 +19631,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19562,7 +19673,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19593,7 +19704,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19622,7 +19733,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19651,7 +19762,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19680,7 +19791,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19709,7 +19820,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19738,7 +19849,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19769,7 +19880,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19798,7 +19909,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19827,7 +19938,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19856,7 +19967,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21087,6 +21198,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21098,13 +21216,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang11\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang11\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="104">
   <si>
     <t>STT</t>
   </si>
@@ -337,6 +337,33 @@
   </si>
   <si>
     <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Thay module MC60</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
   </si>
 </sst>
 </file>
@@ -7937,8 +7964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8151,7 +8178,9 @@
       <c r="B6" s="61">
         <v>44869</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44870</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -8176,13 +8205,21 @@
         <v>82</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
       <c r="U6" s="86" t="s">
@@ -8200,7 +8237,9 @@
       <c r="B7" s="61">
         <v>44869</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44870</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -8222,12 +8261,22 @@
         <v>82</v>
       </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>96</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
       <c r="U7" s="87"/>
@@ -8643,7 +8692,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8888,7 +8937,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9144,7 +9193,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9262,7 +9311,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -12503,8 +12552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17121,8 +17170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:S7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17436,7 +17485,9 @@
       <c r="R7" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="76"/>
+      <c r="S7" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T7" s="69"/>
       <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
@@ -17448,24 +17499,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="B8" s="61">
+        <v>44880</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44880</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="60">
+        <v>864811036941834</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="63" t="s">
+        <v>87</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="K8" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T8" s="69"/>
       <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
@@ -17477,24 +17558,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
+      <c r="B9" s="61">
+        <v>44880</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44880</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="60">
+        <v>868926033909406</v>
+      </c>
       <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="G9" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="63" t="s">
+        <v>100</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T9" s="69"/>
       <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
@@ -17506,23 +17615,49 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
+      <c r="B10" s="61">
+        <v>44880</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44880</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="60">
+        <v>864811037290736</v>
+      </c>
       <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="I10" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
       <c r="U10" s="87"/>
@@ -17851,7 +17986,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -18032,7 +18167,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -18160,7 +18295,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18288,7 +18423,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18352,7 +18487,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -18470,7 +18605,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -18705,7 +18840,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -365,12 +365,18 @@
   <si>
     <t>Không sửa</t>
   </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,24 +446,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -584,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -796,16 +784,6 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,6 +792,30 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -832,30 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,39 +1177,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1276,58 +1254,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1352,23 +1330,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,7 +1372,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1425,7 +1403,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1454,7 +1432,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1483,7 +1461,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1512,7 +1490,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1541,7 +1519,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1548,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1601,7 +1579,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1630,7 +1608,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1659,7 +1637,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1688,7 +1666,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3404,13 +3382,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3422,6 +3393,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3465,39 +3443,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3542,58 +3520,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3618,23 +3596,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3660,7 +3638,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3691,7 +3669,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3720,7 +3698,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3749,7 +3727,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3778,7 +3756,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3807,7 +3785,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3836,7 +3814,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3867,7 +3845,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3896,7 +3874,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3925,7 +3903,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3954,7 +3932,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5670,6 +5648,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5681,13 +5666,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5731,39 +5709,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5808,58 +5786,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5884,23 +5862,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5926,7 +5904,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5957,7 +5935,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5986,7 +5964,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6015,7 +5993,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6044,7 +6022,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6073,7 +6051,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6102,7 +6080,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6133,7 +6111,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6162,7 +6140,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6191,7 +6169,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6220,7 +6198,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7936,6 +7914,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7947,13 +7932,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7997,41 +7975,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8076,58 +8054,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8152,23 +8130,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8222,7 +8200,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8279,7 +8257,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8308,7 +8286,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8337,7 +8315,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8366,7 +8344,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8395,7 +8373,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8424,7 +8402,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8455,7 +8433,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8484,7 +8462,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8513,7 +8491,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8542,7 +8520,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10258,6 +10236,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10269,13 +10254,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10319,39 +10297,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10396,58 +10374,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10472,23 +10450,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10514,7 +10492,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10545,7 +10523,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10574,7 +10552,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10603,7 +10581,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10632,7 +10610,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10661,7 +10639,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10690,7 +10668,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10721,7 +10699,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10750,7 +10728,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10779,7 +10757,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10808,7 +10786,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12524,6 +12502,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12535,13 +12520,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12585,41 +12563,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12664,58 +12642,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12740,23 +12718,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12806,9 +12784,9 @@
       <c r="R6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="76"/>
+      <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12865,9 +12843,9 @@
       <c r="R7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="76"/>
+      <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12924,9 +12902,9 @@
       <c r="R8" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="76"/>
+      <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12939,7 +12917,7 @@
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="75"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
       <c r="H9" s="62"/>
@@ -12953,9 +12931,9 @@
       <c r="P9" s="66"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="67"/>
-      <c r="S9" s="76"/>
+      <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12968,13 +12946,13 @@
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="75"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
       <c r="I10" s="63"/>
       <c r="J10" s="64"/>
-      <c r="K10" s="75"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
       <c r="N10" s="64"/>
@@ -12982,9 +12960,9 @@
       <c r="P10" s="66"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="67"/>
-      <c r="S10" s="76"/>
+      <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12997,13 +12975,13 @@
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
-      <c r="E11" s="75"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="77"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="63"/>
       <c r="J11" s="64"/>
-      <c r="K11" s="75"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
       <c r="N11" s="64"/>
@@ -13011,9 +12989,9 @@
       <c r="P11" s="66"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="67"/>
-      <c r="S11" s="76"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13042,7 +13020,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13073,7 +13051,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13102,7 +13080,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13131,7 +13109,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13160,7 +13138,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14876,6 +14854,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14887,13 +14872,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14937,39 +14915,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15014,58 +14992,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15090,23 +15068,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15132,7 +15110,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15163,7 +15141,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15192,7 +15170,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15221,7 +15199,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15250,7 +15228,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15279,7 +15257,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15308,7 +15286,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15339,7 +15317,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15368,7 +15346,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15397,7 +15375,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15426,7 +15404,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17142,6 +17120,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17153,13 +17138,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17171,7 +17149,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17203,41 +17181,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17282,58 +17260,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17358,23 +17336,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17430,7 +17408,7 @@
         <v>76</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17489,7 +17467,7 @@
         <v>76</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17548,7 +17526,7 @@
         <v>76</v>
       </c>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17605,7 +17583,7 @@
         <v>76</v>
       </c>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17660,7 +17638,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17670,26 +17648,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="59"/>
+      <c r="B11" s="61">
+        <v>44882</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44882</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="60">
+        <v>868926033992915</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17699,26 +17703,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="61">
+        <v>44882</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44882</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="60">
+        <v>868926033921690</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="56"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17749,7 +17779,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17778,7 +17808,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17807,7 +17837,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17836,7 +17866,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17986,7 +18016,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -18295,7 +18325,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18391,7 +18421,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -18487,7 +18517,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -19552,6 +19582,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19563,13 +19600,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19613,39 +19643,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19690,58 +19720,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="82"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="82" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19766,23 +19796,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19808,7 +19838,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19839,7 +19869,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19868,7 +19898,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19897,7 +19927,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19926,7 +19956,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19955,7 +19985,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19984,7 +20014,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20015,7 +20045,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20044,7 +20074,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20073,7 +20103,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20102,7 +20132,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21333,13 +21363,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21351,6 +21374,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -371,6 +371,21 @@
   <si>
     <t>Xử lý phần cứng</t>
   </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16161</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
 </sst>
 </file>
 
@@ -572,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,30 +808,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -835,7 +826,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,39 +1195,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1254,58 +1272,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1330,23 +1348,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1372,7 +1390,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1403,7 +1421,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1432,7 +1450,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1461,7 +1479,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1490,7 +1508,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1519,7 +1537,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1548,7 +1566,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1579,7 +1597,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1608,7 +1626,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1637,7 +1655,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1666,7 +1684,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3382,6 +3400,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3393,13 +3418,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3443,39 +3461,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3520,58 +3538,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3596,23 +3614,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3638,7 +3656,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3669,7 +3687,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3698,7 +3716,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3727,7 +3745,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3756,7 +3774,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3785,7 +3803,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3814,7 +3832,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3845,7 +3863,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3874,7 +3892,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3903,7 +3921,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3932,7 +3950,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5648,13 +5666,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5666,6 +5677,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5709,39 +5727,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5786,58 +5804,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5862,23 +5880,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5904,7 +5922,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5935,7 +5953,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5964,7 +5982,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5993,7 +6011,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6022,7 +6040,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6051,7 +6069,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6080,7 +6098,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6111,7 +6129,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6140,7 +6158,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6169,7 +6187,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6198,7 +6216,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7914,13 +7932,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7932,6 +7943,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7975,41 +7993,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8054,58 +8072,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8130,23 +8148,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8200,7 +8218,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8257,7 +8275,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8286,7 +8304,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8315,7 +8333,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8344,7 +8362,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8373,7 +8391,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8402,7 +8420,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8433,7 +8451,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8462,7 +8480,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8491,7 +8509,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8520,7 +8538,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10236,13 +10254,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10254,6 +10265,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10297,39 +10315,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10374,58 +10392,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10450,23 +10468,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10492,7 +10510,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10523,7 +10541,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10552,7 +10570,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10581,7 +10599,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10610,7 +10628,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10639,7 +10657,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10668,7 +10686,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10699,7 +10717,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10728,7 +10746,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10757,7 +10775,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10786,7 +10804,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12502,13 +12520,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12520,6 +12531,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12530,8 +12548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R8"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12563,41 +12581,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12642,58 +12660,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12718,23 +12736,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12747,14 +12765,14 @@
       <c r="C6" s="61">
         <v>44869</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="71">
         <v>868183037794489</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="62" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
@@ -12786,7 +12804,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12804,19 +12822,19 @@
       <c r="C7" s="61">
         <v>44876</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="71">
         <v>867717030471511</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="62" t="s">
         <v>91</v>
       </c>
       <c r="I7" s="63" t="s">
@@ -12845,7 +12863,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12861,19 +12879,19 @@
       <c r="C8" s="61">
         <v>44876</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="71">
         <v>867857039895482</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="62" t="s">
         <v>93</v>
       </c>
       <c r="I8" s="63" t="s">
@@ -12904,7 +12922,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12914,26 +12932,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="61">
+        <v>44883</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44883</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="71">
+        <v>860157040210640</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="63" t="s">
+        <v>107</v>
+      </c>
       <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="K9" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
+      <c r="O9" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12962,7 +13006,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12991,7 +13035,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13020,7 +13064,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13051,7 +13095,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13080,7 +13124,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13109,7 +13153,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13138,7 +13182,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13256,7 +13300,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13725,7 +13769,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13789,7 +13833,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14854,13 +14898,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14872,6 +14909,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14915,39 +14959,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14992,58 +15036,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15068,23 +15112,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15110,7 +15154,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15141,7 +15185,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15170,7 +15214,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15199,7 +15243,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15228,7 +15272,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15257,7 +15301,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15286,7 +15330,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15317,7 +15361,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15346,7 +15390,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15375,7 +15419,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15404,7 +15448,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17120,13 +17164,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17138,6 +17175,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17148,8 +17192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17181,41 +17225,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="86"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17260,58 +17304,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17336,23 +17380,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17365,14 +17409,14 @@
       <c r="C6" s="61">
         <v>44869</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="71">
         <v>868926033990539</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="62" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
@@ -17408,7 +17452,7 @@
         <v>76</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17426,19 +17470,19 @@
       <c r="C7" s="61">
         <v>44876</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="71">
         <v>864811037242497</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="63" t="s">
         <v>87</v>
       </c>
@@ -17467,7 +17511,7 @@
         <v>76</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17483,24 +17527,24 @@
       <c r="C8" s="61">
         <v>44880</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="71">
         <v>864811036941834</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="64"/>
+      <c r="K8" s="65" t="s">
         <v>101</v>
       </c>
       <c r="L8" s="66" t="s">
@@ -17526,7 +17570,7 @@
         <v>76</v>
       </c>
       <c r="T8" s="69"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17542,22 +17586,22 @@
       <c r="C9" s="61">
         <v>44880</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="71">
         <v>868926033909406</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59" t="s">
+      <c r="F9" s="62"/>
+      <c r="G9" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="37"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="64"/>
+      <c r="K9" s="64" t="s">
         <v>99</v>
       </c>
       <c r="L9" s="66" t="s">
@@ -17583,7 +17627,7 @@
         <v>76</v>
       </c>
       <c r="T9" s="69"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17599,24 +17643,24 @@
       <c r="C10" s="61">
         <v>44880</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="71">
         <v>864811037290736</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="37"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="64" t="s">
         <v>99</v>
       </c>
       <c r="L10" s="39"/>
@@ -17638,7 +17682,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17654,24 +17698,24 @@
       <c r="C11" s="61">
         <v>44882</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="71">
         <v>868926033992915</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59" t="s">
+      <c r="F11" s="62"/>
+      <c r="G11" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="73"/>
+      <c r="I11" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="K11" s="38"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="39" t="s">
         <v>78</v>
       </c>
@@ -17693,7 +17737,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17709,24 +17753,24 @@
       <c r="C12" s="61">
         <v>44882</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="71">
         <v>868926033921690</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="56"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="65" t="s">
         <v>78</v>
       </c>
@@ -17748,7 +17792,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17760,26 +17804,50 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="61">
+        <v>44883</v>
+      </c>
       <c r="C13" s="61"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="39"/>
+      <c r="D13" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="71">
+        <v>868345031034549</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="67" t="s">
+        <v>75</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17789,26 +17857,54 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
+      <c r="B14" s="61">
+        <v>44883</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="71">
+        <v>868926033922094</v>
+      </c>
+      <c r="F14" s="89"/>
+      <c r="G14" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T14" s="69"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17818,16 +17914,24 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="B15" s="61">
+        <v>44883</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="71">
+        <v>866192037811245</v>
+      </c>
+      <c r="F15" s="89"/>
+      <c r="G15" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="89"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
       <c r="N15" s="1"/>
@@ -17837,7 +17941,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17847,26 +17951,54 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="61">
+        <v>44883</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="71">
+        <v>864811036919574</v>
+      </c>
+      <c r="F16" s="89"/>
+      <c r="G16" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18325,7 +18457,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18453,7 +18585,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18517,7 +18649,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -19582,13 +19714,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19600,6 +19725,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19643,39 +19775,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19720,58 +19852,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="82" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19796,23 +19928,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="82"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="74"/>
       <c r="P5" s="88"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19838,7 +19970,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19869,7 +20001,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19898,7 +20030,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19927,7 +20059,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19956,7 +20088,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19985,7 +20117,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20014,7 +20146,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20045,7 +20177,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20074,7 +20206,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20103,7 +20235,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20132,7 +20264,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21363,6 +21495,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21374,13 +21513,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -808,6 +808,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,34 +853,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,39 +1195,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1272,26 +1272,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="80" t="s">
@@ -1310,20 +1310,20 @@
       <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
@@ -1358,13 +1358,13 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="79"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1421,7 +1421,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1597,7 +1597,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3400,13 +3400,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3418,6 +3411,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3461,39 +3461,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3538,26 +3538,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="80" t="s">
@@ -3576,20 +3576,20 @@
       <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -3624,13 +3624,13 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="79"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3687,7 +3687,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3863,7 +3863,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5666,6 +5666,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5677,13 +5684,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5727,39 +5727,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5804,26 +5804,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="80" t="s">
@@ -5842,20 +5842,20 @@
       <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5880,7 +5880,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -5890,13 +5890,13 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="79"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5922,7 +5922,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5953,7 +5953,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5982,7 +5982,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6040,7 +6040,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6069,7 +6069,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6129,7 +6129,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7932,6 +7932,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7943,13 +7950,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7960,8 +7960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7993,41 +7993,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8072,26 +8072,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
@@ -8101,7 +8101,7 @@
       <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="80" t="s">
@@ -8110,20 +8110,20 @@
       <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8148,7 +8148,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -8158,13 +8158,13 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="79"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8275,7 +8275,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8304,7 +8304,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8333,7 +8333,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8362,7 +8362,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8391,7 +8391,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8420,7 +8420,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8451,7 +8451,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8480,7 +8480,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8538,7 +8538,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10254,6 +10254,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10265,13 +10272,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10283,7 +10283,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10315,39 +10315,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10392,26 +10392,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
@@ -10421,7 +10421,7 @@
       <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="80" t="s">
@@ -10430,20 +10430,20 @@
       <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10468,7 +10468,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -10478,13 +10478,13 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="79"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10510,7 +10510,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10541,7 +10541,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10570,7 +10570,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10599,7 +10599,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10628,7 +10628,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10657,7 +10657,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10686,7 +10686,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10717,7 +10717,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10746,7 +10746,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10775,7 +10775,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10804,7 +10804,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12520,6 +12520,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12531,13 +12538,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12548,8 +12548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12581,41 +12581,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12660,26 +12660,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
@@ -12689,7 +12689,7 @@
       <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="80" t="s">
@@ -12698,20 +12698,20 @@
       <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12736,7 +12736,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -12746,13 +12746,13 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="79"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12944,7 +12944,7 @@
       <c r="E9" s="71">
         <v>860157040210640</v>
       </c>
-      <c r="F9" s="89"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="62" t="s">
         <v>64</v>
       </c>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13006,7 +13006,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13035,7 +13035,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13064,7 +13064,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13095,7 +13095,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13124,7 +13124,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13153,7 +13153,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13182,7 +13182,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14898,6 +14898,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14909,13 +14916,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14959,39 +14959,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15036,26 +15036,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
@@ -15065,7 +15065,7 @@
       <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="80" t="s">
@@ -15074,20 +15074,20 @@
       <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15112,7 +15112,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -15122,13 +15122,13 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="79"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15154,7 +15154,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15185,7 +15185,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15214,7 +15214,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15243,7 +15243,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15272,7 +15272,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15301,7 +15301,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15330,7 +15330,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15361,7 +15361,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15390,7 +15390,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15419,7 +15419,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17164,6 +17164,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17175,13 +17182,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17192,8 +17192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17225,41 +17225,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17304,26 +17304,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
@@ -17333,7 +17333,7 @@
       <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="80" t="s">
@@ -17342,20 +17342,20 @@
       <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17380,7 +17380,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -17390,13 +17390,13 @@
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
       <c r="O5" s="81"/>
-      <c r="P5" s="86"/>
+      <c r="P5" s="79"/>
       <c r="Q5" s="81"/>
       <c r="R5" s="81"/>
-      <c r="S5" s="87"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17415,7 +17415,7 @@
       <c r="E6" s="71">
         <v>868926033990539</v>
       </c>
-      <c r="F6" s="89"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="62" t="s">
         <v>64</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>76</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17511,7 +17511,7 @@
         <v>76</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>76</v>
       </c>
       <c r="T8" s="69"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>76</v>
       </c>
       <c r="T9" s="69"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17682,7 +17682,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17807,14 +17807,16 @@
       <c r="B13" s="61">
         <v>44883</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44886</v>
+      </c>
       <c r="D13" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="71">
         <v>868345031034549</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="62" t="s">
         <v>64</v>
       </c>
@@ -17847,7 +17849,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17860,18 +17862,20 @@
       <c r="B14" s="61">
         <v>44883</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44886</v>
+      </c>
       <c r="D14" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="71">
         <v>868926033922094</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="89"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="63" t="s">
         <v>100</v>
       </c>
@@ -17904,7 +17908,7 @@
         <v>76</v>
       </c>
       <c r="T14" s="69"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17917,31 +17921,51 @@
       <c r="B15" s="61">
         <v>44883</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44886</v>
+      </c>
       <c r="D15" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="71">
         <v>866192037811245</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>79</v>
+      </c>
       <c r="K15" s="64"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="L15" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
+      <c r="O15" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17954,14 +17978,16 @@
       <c r="B16" s="61">
         <v>44883</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61">
+        <v>44886</v>
+      </c>
       <c r="D16" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="71">
         <v>864811036919574</v>
       </c>
-      <c r="F16" s="89"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="62" t="s">
         <v>64</v>
       </c>
@@ -17998,7 +18024,7 @@
         <v>76</v>
       </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18457,7 +18483,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18585,7 +18611,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18649,7 +18675,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -19714,6 +19740,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19725,13 +19758,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19775,39 +19801,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19852,58 +19878,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19928,7 +19954,7 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
@@ -19937,14 +19963,14 @@
       </c>
       <c r="M5" s="81"/>
       <c r="N5" s="81"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="87"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19970,7 +19996,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20001,7 +20027,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20030,7 +20056,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20059,7 +20085,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20088,7 +20114,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20117,7 +20143,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20146,7 +20172,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20177,7 +20203,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20206,7 +20232,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20235,7 +20261,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20264,7 +20290,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21495,13 +21521,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21513,6 +21532,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -252,21 +252,6 @@
     <t>TG102V</t>
   </si>
   <si>
-    <t>W.2.00.---19.200527</t>
-  </si>
-  <si>
-    <t>125.212.203.114,16565</t>
-  </si>
-  <si>
-    <t>LE.2.00.---28.200624</t>
-  </si>
-  <si>
-    <t>125.212.203.114,16969</t>
-  </si>
-  <si>
-    <t>Thiết bị lỗi GPS</t>
-  </si>
-  <si>
     <t>Nâng cấp khay sim+FW</t>
   </si>
   <si>
@@ -276,16 +261,7 @@
     <t>Thể</t>
   </si>
   <si>
-    <t>PM+PC</t>
-  </si>
-  <si>
-    <t>LK, NCFW</t>
-  </si>
-  <si>
     <t>CS</t>
-  </si>
-  <si>
-    <t>Set về baudrate 9600</t>
   </si>
   <si>
     <t>W.2.00.---21.200630</t>
@@ -294,97 +270,19 @@
     <t>Thiết bị không nhận sim</t>
   </si>
   <si>
-    <t>E.2.00.---24.200401</t>
-  </si>
-  <si>
-    <t>125.212.203.114,16060</t>
-  </si>
-  <si>
-    <t>E.2.00.---24.200624</t>
-  </si>
-  <si>
-    <t>TB Nóng module MC60</t>
-  </si>
-  <si>
-    <t>Thiết bị không sáng đèn GPS</t>
-  </si>
-  <si>
-    <t>125.212.203.114,13232</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>125.212.203.114,16767</t>
   </si>
   <si>
-    <t>VI.2.00.---21.200630</t>
+    <t>PC+PM</t>
   </si>
   <si>
-    <t>Nâng cấp khay sim</t>
+    <t>LK NCFW</t>
   </si>
   <si>
-    <t>Tùng</t>
+    <t>VI.1.00.---01.180629</t>
   </si>
   <si>
-    <t>Sim hết data</t>
-  </si>
-  <si>
-    <t>Test lại thiết bị</t>
-  </si>
-  <si>
-    <t>Hết hạn dịch vụ</t>
-  </si>
-  <si>
-    <t>LE.1.00.---01.180405</t>
-  </si>
-  <si>
-    <t>sim</t>
-  </si>
-  <si>
-    <t>Thay module MC60</t>
-  </si>
-  <si>
-    <t>Không khắc phục được</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W.1.00.---01.181101 </t>
-  </si>
-  <si>
-    <t>125.212.203.114,16363</t>
-  </si>
-  <si>
-    <t>W.1.00.---01.180629</t>
-  </si>
-  <si>
-    <t>Thiết bị lỗi module GSM</t>
-  </si>
-  <si>
-    <t>Không sửa</t>
-  </si>
-  <si>
-    <t>Thiết bị treo</t>
-  </si>
-  <si>
-    <t>Xử lý phần cứng</t>
-  </si>
-  <si>
-    <t>LE.1.00.---06.191010</t>
-  </si>
-  <si>
-    <t>125.212.203.114,16161</t>
-  </si>
-  <si>
-    <t>W.2.00.---19.200416</t>
-  </si>
-  <si>
-    <t>125.212.203.114,14747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W.1.00.---01.180629 </t>
+    <t xml:space="preserve">Test lại thiết bị </t>
   </si>
 </sst>
 </file>
@@ -811,30 +709,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,6 +726,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1195,39 +1093,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1272,58 +1170,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1348,23 +1246,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,7 +1288,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1421,7 +1319,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1450,7 +1348,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1377,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1508,7 +1406,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1537,7 +1435,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1566,7 +1464,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1597,7 +1495,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1626,7 +1524,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1655,7 +1553,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1582,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3400,6 +3298,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3411,13 +3316,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3461,39 +3359,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3538,58 +3436,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3614,23 +3512,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3656,7 +3554,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3687,7 +3585,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3716,7 +3614,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3745,7 +3643,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3774,7 +3672,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3803,7 +3701,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3832,7 +3730,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3863,7 +3761,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3892,7 +3790,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3921,7 +3819,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3950,7 +3848,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5666,13 +5564,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5684,6 +5575,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5727,39 +5625,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5804,58 +5702,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5880,23 +5778,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5922,7 +5820,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5953,7 +5851,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5982,7 +5880,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6011,7 +5909,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6040,7 +5938,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6069,7 +5967,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6098,7 +5996,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6129,7 +6027,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6158,7 +6056,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6187,7 +6085,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6216,7 +6114,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7932,13 +7830,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7950,6 +7841,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7960,8 +7858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R7"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7993,41 +7891,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8072,58 +7970,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8148,77 +8046,49 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61">
-        <v>44869</v>
-      </c>
-      <c r="C6" s="61">
-        <v>44870</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="38">
-        <v>861359036884656</v>
-      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="47"/>
-      <c r="G6" s="37" t="s">
-        <v>64</v>
-      </c>
+      <c r="G6" s="37"/>
       <c r="H6" s="62"/>
-      <c r="I6" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>97</v>
-      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="64"/>
-      <c r="O6" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="67" t="s">
-        <v>31</v>
-      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8230,52 +8100,26 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61">
-        <v>44869</v>
-      </c>
-      <c r="C7" s="61">
-        <v>44870</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="38">
-        <v>861359036878278</v>
-      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="47"/>
-      <c r="G7" s="37" t="s">
-        <v>64</v>
-      </c>
+      <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="65" t="s">
-        <v>82</v>
-      </c>
+      <c r="I7" s="63"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="66"/>
-      <c r="M7" s="66" t="s">
-        <v>96</v>
-      </c>
+      <c r="M7" s="66"/>
       <c r="N7" s="64"/>
-      <c r="O7" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="67" t="s">
-        <v>31</v>
-      </c>
+      <c r="O7" s="64"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8304,7 +8148,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8333,7 +8177,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8362,7 +8206,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8391,7 +8235,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8420,7 +8264,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8451,7 +8295,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8480,7 +8324,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8509,7 +8353,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8538,7 +8382,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8688,7 +8532,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8933,7 +8777,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9189,7 +9033,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9307,7 +9151,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -10254,13 +10098,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10272,6 +10109,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10315,39 +10159,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10392,58 +10236,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10468,23 +10312,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10510,7 +10354,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10541,7 +10385,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10570,7 +10414,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10599,7 +10443,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10628,7 +10472,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10657,7 +10501,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10686,7 +10530,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10717,7 +10561,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10746,7 +10590,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10775,7 +10619,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10804,7 +10648,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12520,13 +12364,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12538,6 +12375,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12548,8 +12392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12581,41 +12425,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12660,58 +12504,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12736,23 +12580,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12760,51 +12604,47 @@
         <v>1</v>
       </c>
       <c r="B6" s="61">
-        <v>44869</v>
+        <v>44896</v>
       </c>
       <c r="C6" s="61">
-        <v>44869</v>
-      </c>
-      <c r="D6" s="62" t="s">
+        <v>44896</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="71">
-        <v>868183037794489</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62" t="s">
+        <v>868183034533138</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="59" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>68</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12817,43 +12657,37 @@
         <v>2</v>
       </c>
       <c r="B7" s="61">
-        <v>44874</v>
+        <v>44896</v>
       </c>
       <c r="C7" s="61">
-        <v>44876</v>
-      </c>
-      <c r="D7" s="62" t="s">
+        <v>44896</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="71">
-        <v>867717030471511</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="62" t="s">
+        <v>868183038538968</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="62" t="s">
-        <v>91</v>
-      </c>
+      <c r="H7" s="62"/>
       <c r="I7" s="63" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J7" s="64"/>
       <c r="K7" s="65"/>
-      <c r="L7" s="66" t="s">
-        <v>68</v>
-      </c>
+      <c r="L7" s="66"/>
       <c r="M7" s="66" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="N7" s="64"/>
       <c r="O7" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="64" t="s">
         <v>19</v>
@@ -12863,7 +12697,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12873,56 +12707,26 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61">
-        <v>44874</v>
-      </c>
-      <c r="C8" s="61">
-        <v>44876</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="71">
-        <v>867857039895482</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>67</v>
-      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="64"/>
-      <c r="K8" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>38</v>
-      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
       <c r="N8" s="64"/>
-      <c r="O8" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>24</v>
-      </c>
+      <c r="O8" s="64"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="67"/>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12932,52 +12736,26 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61">
-        <v>44883</v>
-      </c>
-      <c r="C9" s="61">
-        <v>44883</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="71">
-        <v>860157040210640</v>
-      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="74"/>
-      <c r="G9" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G9" s="62"/>
       <c r="H9" s="62"/>
-      <c r="I9" s="63" t="s">
-        <v>107</v>
-      </c>
+      <c r="I9" s="63"/>
       <c r="J9" s="64"/>
-      <c r="K9" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>38</v>
-      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="64"/>
-      <c r="O9" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="67" t="s">
-        <v>24</v>
-      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="67"/>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13006,7 +12784,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13035,7 +12813,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13064,7 +12842,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13095,7 +12873,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13124,7 +12902,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13153,7 +12931,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13182,7 +12960,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13300,7 +13078,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13673,7 +13451,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -13769,7 +13547,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13801,7 +13579,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13833,7 +13611,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14898,13 +14676,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14916,6 +14687,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14959,39 +14737,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15036,58 +14814,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15112,23 +14890,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15154,7 +14932,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15185,7 +14963,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15214,7 +14992,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15243,7 +15021,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15272,7 +15050,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15301,7 +15079,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15330,7 +15108,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15361,7 +15139,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15390,7 +15168,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15419,7 +15197,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15448,7 +15226,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17164,13 +16942,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17182,6 +16953,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17192,8 +16970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:S16"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17225,41 +17003,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17304,58 +17082,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17380,23 +17158,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17404,55 +17182,53 @@
         <v>1</v>
       </c>
       <c r="B6" s="61">
-        <v>44869</v>
+        <v>44896</v>
       </c>
       <c r="C6" s="61">
-        <v>44869</v>
-      </c>
-      <c r="D6" s="62" t="s">
+        <v>44896</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="71">
-        <v>868926033990539</v>
+        <v>864811036981889</v>
       </c>
       <c r="F6" s="74"/>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="59" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K6" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66" t="s">
         <v>66</v>
-      </c>
-      <c r="L6" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>71</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P6" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" s="64" t="s">
+      <c r="R6" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="67" t="s">
-        <v>75</v>
-      </c>
       <c r="S6" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17465,53 +17241,53 @@
         <v>2</v>
       </c>
       <c r="B7" s="61">
-        <v>44874</v>
+        <v>44896</v>
       </c>
       <c r="C7" s="61">
-        <v>44876</v>
-      </c>
-      <c r="D7" s="62" t="s">
+        <v>44896</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="71">
-        <v>864811037242497</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="62" t="s">
+        <v>866192037802293</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="59" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="62"/>
       <c r="I7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="64"/>
+        <v>72</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>71</v>
+      </c>
       <c r="K7" s="65" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="L7" s="66"/>
       <c r="M7" s="66" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="N7" s="64"/>
       <c r="O7" s="64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="64" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="R7" s="67" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17521,56 +17297,26 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61">
-        <v>44880</v>
-      </c>
-      <c r="C8" s="61">
-        <v>44880</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="71">
-        <v>864811036941834</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="62"/>
-      <c r="I8" s="63" t="s">
-        <v>87</v>
-      </c>
+      <c r="I8" s="63"/>
       <c r="J8" s="64"/>
-      <c r="K8" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>71</v>
-      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
       <c r="N8" s="64"/>
-      <c r="O8" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="O8" s="64"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17580,54 +17326,26 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61">
-        <v>44880</v>
-      </c>
-      <c r="C9" s="61">
-        <v>44880</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="71">
-        <v>868926033909406</v>
-      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="62"/>
-      <c r="G9" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G9" s="62"/>
       <c r="H9" s="62"/>
-      <c r="I9" s="63" t="s">
-        <v>100</v>
-      </c>
+      <c r="I9" s="63"/>
       <c r="J9" s="64"/>
-      <c r="K9" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>71</v>
-      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="64"/>
-      <c r="O9" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17637,52 +17355,26 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61">
-        <v>44880</v>
-      </c>
-      <c r="C10" s="61">
-        <v>44880</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="71">
-        <v>864811037290736</v>
-      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="62"/>
-      <c r="G10" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G10" s="62"/>
       <c r="H10" s="62"/>
-      <c r="I10" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>99</v>
-      </c>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="39" t="s">
-        <v>103</v>
-      </c>
+      <c r="M10" s="39"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17692,52 +17384,26 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61">
-        <v>44882</v>
-      </c>
-      <c r="C11" s="61">
-        <v>44882</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="71">
-        <v>868926033992915</v>
-      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="62"/>
-      <c r="G11" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G11" s="62"/>
       <c r="H11" s="73"/>
-      <c r="I11" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="64" t="s">
-        <v>104</v>
-      </c>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
       <c r="K11" s="71"/>
-      <c r="L11" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17747,52 +17413,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61">
-        <v>44882</v>
-      </c>
-      <c r="C12" s="61">
-        <v>44882</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="71">
-        <v>868926033921690</v>
-      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="62"/>
-      <c r="G12" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G12" s="62"/>
       <c r="H12" s="73"/>
-      <c r="I12" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="64" t="s">
-        <v>79</v>
-      </c>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
       <c r="K12" s="64"/>
-      <c r="L12" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>105</v>
-      </c>
+      <c r="L12" s="65"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17804,52 +17444,26 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61">
-        <v>44883</v>
-      </c>
-      <c r="C13" s="61">
-        <v>44886</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="71">
-        <v>868345031034549</v>
-      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="74"/>
-      <c r="G13" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G13" s="62"/>
       <c r="H13" s="62"/>
-      <c r="I13" s="63" t="s">
-        <v>109</v>
-      </c>
+      <c r="I13" s="63"/>
       <c r="J13" s="64"/>
-      <c r="K13" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="K13" s="64"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="67" t="s">
-        <v>75</v>
-      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17859,56 +17473,26 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="61">
-        <v>44883</v>
-      </c>
-      <c r="C14" s="61">
-        <v>44886</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="71">
-        <v>868926033922094</v>
-      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="74"/>
-      <c r="G14" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G14" s="62"/>
       <c r="H14" s="74"/>
-      <c r="I14" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="66" t="s">
-        <v>71</v>
-      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="64"/>
-      <c r="O14" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="O14" s="64"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17918,54 +17502,26 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="61">
-        <v>44883</v>
-      </c>
-      <c r="C15" s="61">
-        <v>44886</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="71">
-        <v>866192037811245</v>
-      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="74"/>
-      <c r="G15" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G15" s="62"/>
       <c r="H15" s="74"/>
-      <c r="I15" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>79</v>
-      </c>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="64"/>
-      <c r="L15" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="66" t="s">
-        <v>71</v>
-      </c>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q15" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="O15" s="64"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17975,56 +17531,26 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="61">
-        <v>44883</v>
-      </c>
-      <c r="C16" s="61">
-        <v>44886</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="71">
-        <v>864811036919574</v>
-      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="74"/>
-      <c r="G16" s="62" t="s">
-        <v>64</v>
-      </c>
+      <c r="G16" s="62"/>
       <c r="H16" s="62"/>
-      <c r="I16" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="66" t="s">
-        <v>71</v>
-      </c>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="64"/>
-      <c r="O16" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="O16" s="64"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -18174,7 +17700,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -18206,7 +17732,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -18355,7 +17881,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -18483,7 +18009,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18579,7 +18105,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -18611,7 +18137,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18675,7 +18201,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -18793,7 +18319,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -19028,7 +18554,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -19740,13 +19266,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19758,6 +19277,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19801,39 +19327,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19878,58 +19404,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="88" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="83" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19954,23 +19480,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="83"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="89"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="82"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19996,7 +19522,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20027,7 +19553,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20056,7 +19582,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20085,7 +19611,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20114,7 +19640,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20143,7 +19669,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20172,7 +19698,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20203,7 +19729,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20232,7 +19758,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20261,7 +19787,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20290,7 +19816,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21521,6 +21047,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21532,13 +21065,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Duphonglapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -252,6 +252,21 @@
     <t>TG102V</t>
   </si>
   <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
     <t>Nâng cấp khay sim+FW</t>
   </si>
   <si>
@@ -261,7 +276,16 @@
     <t>Thể</t>
   </si>
   <si>
+    <t>PM+PC</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>Set về baudrate 9600</t>
   </si>
   <si>
     <t>W.2.00.---21.200630</t>
@@ -270,19 +294,97 @@
     <t>Thiết bị không nhận sim</t>
   </si>
   <si>
+    <t>E.2.00.---24.200401</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624</t>
+  </si>
+  <si>
+    <t>TB Nóng module MC60</t>
+  </si>
+  <si>
+    <t>Thiết bị không sáng đèn GPS</t>
+  </si>
+  <si>
+    <t>125.212.203.114,13232</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
     <t>125.212.203.114,16767</t>
   </si>
   <si>
-    <t>PC+PM</t>
+    <t>VI.2.00.---21.200630</t>
   </si>
   <si>
-    <t>LK NCFW</t>
+    <t>Nâng cấp khay sim</t>
   </si>
   <si>
-    <t>VI.1.00.---01.180629</t>
+    <t>Tùng</t>
   </si>
   <si>
-    <t xml:space="preserve">Test lại thiết bị </t>
+    <t>Sim hết data</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Thay module MC60</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Không sửa</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16161</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
   </si>
 </sst>
 </file>
@@ -709,6 +811,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,30 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,39 +1195,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1170,58 +1272,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1246,23 +1348,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,7 +1390,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1319,7 +1421,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1348,7 +1450,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +1479,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1406,7 +1508,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1537,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1566,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1495,7 +1597,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1524,7 +1626,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1553,7 +1655,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1582,7 +1684,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3298,13 +3400,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3316,6 +3411,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3359,39 +3461,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3436,58 +3538,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3512,23 +3614,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3554,7 +3656,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3585,7 +3687,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3614,7 +3716,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3643,7 +3745,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3672,7 +3774,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3701,7 +3803,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3730,7 +3832,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3761,7 +3863,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3790,7 +3892,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3819,7 +3921,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3848,7 +3950,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5564,6 +5666,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5575,13 +5684,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5625,39 +5727,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5702,58 +5804,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5778,23 +5880,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5820,7 +5922,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5851,7 +5953,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5880,7 +5982,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5909,7 +6011,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5938,7 +6040,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5967,7 +6069,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5996,7 +6098,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6027,7 +6129,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6056,7 +6158,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6085,7 +6187,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6114,7 +6216,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7830,6 +7932,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7841,13 +7950,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7858,8 +7960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7891,41 +7993,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7970,58 +8072,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8046,49 +8148,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="61">
+        <v>44869</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44870</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="38">
+        <v>861359036884656</v>
+      </c>
       <c r="F6" s="47"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="I6" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>97</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8100,26 +8230,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="61">
+        <v>44869</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44870</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="38">
+        <v>861359036878278</v>
+      </c>
       <c r="F7" s="47"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>82</v>
+      </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>96</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8148,7 +8304,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8177,7 +8333,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8206,7 +8362,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8235,7 +8391,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8264,7 +8420,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8295,7 +8451,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8324,7 +8480,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8353,7 +8509,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8382,7 +8538,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8532,7 +8688,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8777,7 +8933,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9033,7 +9189,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -9151,7 +9307,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -10098,6 +10254,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10109,13 +10272,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10159,39 +10315,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10236,58 +10392,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10312,23 +10468,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10354,7 +10510,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10385,7 +10541,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10414,7 +10570,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10443,7 +10599,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10472,7 +10628,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10501,7 +10657,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10530,7 +10686,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10561,7 +10717,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10590,7 +10746,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10619,7 +10775,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10648,7 +10804,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12364,6 +12520,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12375,13 +12538,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12392,8 +12548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12425,41 +12581,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12504,58 +12660,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12580,23 +12736,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12604,47 +12760,51 @@
         <v>1</v>
       </c>
       <c r="B6" s="61">
-        <v>44896</v>
+        <v>44869</v>
       </c>
       <c r="C6" s="61">
-        <v>44896</v>
-      </c>
-      <c r="D6" s="59" t="s">
+        <v>44869</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="71">
-        <v>868183034533138</v>
-      </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="59" t="s">
+        <v>868183037794489</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+        <v>69</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>68</v>
+      </c>
       <c r="L6" s="66"/>
       <c r="M6" s="66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12657,37 +12817,43 @@
         <v>2</v>
       </c>
       <c r="B7" s="61">
-        <v>44896</v>
+        <v>44874</v>
       </c>
       <c r="C7" s="61">
-        <v>44896</v>
-      </c>
-      <c r="D7" s="59" t="s">
+        <v>44876</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="71">
-        <v>868183038538968</v>
-      </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="59" t="s">
+        <v>867717030471511</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="62" t="s">
+        <v>91</v>
+      </c>
       <c r="I7" s="63" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J7" s="64"/>
       <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
+      <c r="L7" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="M7" s="66" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="N7" s="64"/>
       <c r="O7" s="64" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="64" t="s">
         <v>19</v>
@@ -12697,7 +12863,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12707,26 +12873,56 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="61">
+        <v>44874</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44876</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="71">
+        <v>867857039895482</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>67</v>
+      </c>
       <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="K8" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
+      <c r="O8" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12736,26 +12932,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="61">
+        <v>44883</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44883</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="71">
+        <v>860157040210640</v>
+      </c>
       <c r="F9" s="74"/>
-      <c r="G9" s="62"/>
+      <c r="G9" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="63" t="s">
+        <v>107</v>
+      </c>
       <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="K9" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
+      <c r="O9" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12784,7 +13006,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12813,7 +13035,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12842,7 +13064,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12873,7 +13095,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12902,7 +13124,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12931,7 +13153,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12960,7 +13182,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13078,7 +13300,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13451,7 +13673,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -13547,7 +13769,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13579,7 +13801,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13611,7 +13833,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14676,6 +14898,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14687,13 +14916,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14737,39 +14959,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14814,58 +15036,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14890,23 +15112,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14932,7 +15154,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14963,7 +15185,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14992,7 +15214,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15021,7 +15243,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15050,7 +15272,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15079,7 +15301,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15108,7 +15330,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15139,7 +15361,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15168,7 +15390,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15197,7 +15419,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15226,7 +15448,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16942,6 +17164,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16953,13 +17182,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16970,8 +17192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17003,41 +17225,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17082,58 +17304,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17158,23 +17380,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="88"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17182,53 +17404,55 @@
         <v>1</v>
       </c>
       <c r="B6" s="61">
-        <v>44896</v>
+        <v>44869</v>
       </c>
       <c r="C6" s="61">
-        <v>44896</v>
-      </c>
-      <c r="D6" s="59" t="s">
+        <v>44869</v>
+      </c>
+      <c r="D6" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="71">
-        <v>864811036981889</v>
+        <v>868926033990539</v>
       </c>
       <c r="F6" s="74"/>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="62" t="s">
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J6" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="66" t="s">
         <v>71</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
-        <v>66</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17241,53 +17465,53 @@
         <v>2</v>
       </c>
       <c r="B7" s="61">
-        <v>44896</v>
+        <v>44874</v>
       </c>
       <c r="C7" s="61">
-        <v>44896</v>
-      </c>
-      <c r="D7" s="59" t="s">
+        <v>44876</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="71">
-        <v>866192037802293</v>
-      </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="59" t="s">
+        <v>864811037242497</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="62"/>
       <c r="I7" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>71</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J7" s="64"/>
       <c r="K7" s="65" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="L7" s="66"/>
       <c r="M7" s="66" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N7" s="64"/>
       <c r="O7" s="64" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="64" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="R7" s="67" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17297,26 +17521,56 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="61">
+        <v>44880</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44880</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="71">
+        <v>864811036941834</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="63" t="s">
+        <v>87</v>
+      </c>
       <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="K8" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="3"/>
+      <c r="O8" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T8" s="69"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17326,26 +17580,54 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="61">
+        <v>44880</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44880</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="71">
+        <v>868926033909406</v>
+      </c>
       <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="G9" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="63" t="s">
+        <v>100</v>
+      </c>
       <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="K9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="3"/>
+      <c r="O9" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T9" s="69"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17355,26 +17637,52 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="71"/>
+      <c r="B10" s="61">
+        <v>44880</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44880</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="71">
+        <v>864811037290736</v>
+      </c>
       <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="G10" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="I10" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>99</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17384,26 +17692,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="71"/>
+      <c r="B11" s="61">
+        <v>44882</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44882</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="71">
+        <v>868926033992915</v>
+      </c>
       <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="G11" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="73"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="I11" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>104</v>
+      </c>
       <c r="K11" s="71"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17413,26 +17747,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="71"/>
+      <c r="B12" s="61">
+        <v>44882</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44882</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="71">
+        <v>868926033921690</v>
+      </c>
       <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="G12" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="73"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>79</v>
+      </c>
       <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>105</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17444,26 +17804,52 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="61">
+        <v>44883</v>
+      </c>
+      <c r="C13" s="61">
+        <v>44886</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="71">
+        <v>868345031034549</v>
+      </c>
       <c r="F13" s="74"/>
-      <c r="G13" s="62"/>
+      <c r="G13" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
+      <c r="I13" s="63" t="s">
+        <v>109</v>
+      </c>
       <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="67"/>
+      <c r="O13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="67" t="s">
+        <v>75</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17473,26 +17859,56 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="71"/>
+      <c r="B14" s="61">
+        <v>44883</v>
+      </c>
+      <c r="C14" s="61">
+        <v>44886</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="71">
+        <v>868926033922094</v>
+      </c>
       <c r="F14" s="74"/>
-      <c r="G14" s="62"/>
+      <c r="G14" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H14" s="74"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
+      <c r="I14" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="3"/>
+      <c r="O14" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T14" s="69"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17502,26 +17918,54 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="61">
+        <v>44883</v>
+      </c>
+      <c r="C15" s="61">
+        <v>44886</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="71">
+        <v>866192037811245</v>
+      </c>
       <c r="F15" s="74"/>
-      <c r="G15" s="62"/>
+      <c r="G15" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H15" s="74"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="I15" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>79</v>
+      </c>
       <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
+      <c r="L15" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="3"/>
+      <c r="O15" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17531,26 +17975,56 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="71"/>
+      <c r="B16" s="61">
+        <v>44883</v>
+      </c>
+      <c r="C16" s="61">
+        <v>44886</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="71">
+        <v>864811036919574</v>
+      </c>
       <c r="F16" s="74"/>
-      <c r="G16" s="62"/>
+      <c r="G16" s="62" t="s">
+        <v>64</v>
+      </c>
       <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
+      <c r="I16" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="3"/>
+      <c r="O16" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17700,7 +18174,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -17732,7 +18206,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -17881,7 +18355,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -18009,7 +18483,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -18105,7 +18579,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -18137,7 +18611,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18201,7 +18675,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -18319,7 +18793,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -18554,7 +19028,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -19266,6 +19740,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19277,13 +19758,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19327,39 +19801,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19404,58 +19878,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="82" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="83" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19480,23 +19954,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="89"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19522,7 +19996,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19553,7 +20027,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19582,7 +20056,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19611,7 +20085,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19640,7 +20114,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19669,7 +20143,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19698,7 +20172,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19729,7 +20203,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19758,7 +20232,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19787,7 +20261,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19816,7 +20290,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21047,13 +21521,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21065,6 +21532,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
